--- a/Metadata/DatasetsMetadata.xlsx
+++ b/Metadata/DatasetsMetadata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="68">
   <si>
     <t>License</t>
   </si>
@@ -148,7 +148,7 @@
     <t>348kB</t>
   </si>
   <si>
-    <t>[out:json];
+    <t xml:space="preserve">[out:json];
 area[name="Trentino-Alto Adige/Südtirol"];
 (
      way["highway"="cycleway"]
@@ -159,7 +159,7 @@
      (area);
 );
 (._;&gt;;);
-out body;</t>
+out body; </t>
   </si>
   <si>
     <t>Hiking trail</t>
@@ -191,6 +191,9 @@
     <t>Ski</t>
   </si>
   <si>
+    <t>DatiOpen.it</t>
+  </si>
+  <si>
     <t>IT</t>
   </si>
   <si>
@@ -204,6 +207,18 @@
   </si>
   <si>
     <t>Sports and Free Time</t>
+  </si>
+  <si>
+    <t>657kB</t>
+  </si>
+  <si>
+    <t>[out:json];
+area[name="Trentino-Alto Adige/Südtirol"];
+(
+   way["piste:type"="downhill"](area);
+);
+(._;&gt;;);
+out body;</t>
   </si>
   <si>
     <t>Rent</t>
@@ -237,9 +252,6 @@
     <t>Hotel</t>
   </si>
   <si>
-    <t>DatiOpen.it</t>
-  </si>
-  <si>
     <t>L3</t>
   </si>
   <si>
@@ -299,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d mmm yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -355,6 +367,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -381,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -413,6 +429,9 @@
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -425,11 +444,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -873,38 +892,38 @@
       <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>31</v>
+      <c r="D5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="12">
+      <c r="J5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="13">
         <v>41360.0</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>44</v>
+      <c r="L5" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="M5" s="8">
         <v>2.0</v>
       </c>
-      <c r="N5" s="14" t="s">
-        <v>45</v>
+      <c r="N5" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>27</v>
@@ -918,7 +937,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>31</v>
@@ -933,24 +952,24 @@
         <v>20</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="M6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="15" t="s">
         <v>24</v>
       </c>
       <c r="O6" s="3" t="s">
@@ -959,46 +978,46 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="I7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="8">
-        <v>1.0</v>
+      <c r="M7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>27</v>
@@ -1006,46 +1025,46 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="M8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>27</v>
@@ -1059,7 +1078,7 @@
         <v>29</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>31</v>
@@ -1077,24 +1096,71 @@
         <v>21</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1109,7 +1175,8 @@
     <hyperlink r:id="rId7" ref="B7"/>
     <hyperlink r:id="rId8" ref="B8"/>
     <hyperlink r:id="rId9" ref="B9"/>
+    <hyperlink r:id="rId10" ref="B10"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>